--- a/0929_covid_df_merge/data/2021-09-29_vaccinated.xlsx
+++ b/0929_covid_df_merge/data/2021-09-29_vaccinated.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jypark\Desktop\Studying\KDT_ML\210929_covid_data\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A363A08-B014-4D5A-8E50-251937A14895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1070" yWindow="0" windowWidth="25000" windowHeight="14590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -22,9 +28,6 @@
     <t>백신접종수</t>
   </si>
   <si>
-    <t>Enough_percent_people:</t>
-  </si>
-  <si>
     <t>1차접종</t>
   </si>
   <si>
@@ -653,17 +656,21 @@
   </si>
   <si>
     <t>Eritrea</t>
+  </si>
+  <si>
+    <t>인구당_백신보유율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -671,8 +678,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -718,15 +732,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -768,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,9 +822,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,6 +874,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1009,14 +1067,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,21 +1084,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>6199443456</v>
@@ -1056,18 +1116,18 @@
         <v>29152868</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>2203184896</v>
       </c>
       <c r="C3">
-        <v>78.69999694824219</v>
+        <v>78.699996948242188</v>
       </c>
       <c r="D3">
-        <v>78.59999847412109</v>
+        <v>78.599998474121094</v>
       </c>
       <c r="E3">
         <v>73</v>
@@ -1076,9 +1136,9 @@
         <v>3171286</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>876538624</v>
@@ -1087,7 +1147,7 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>46.70000076293945</v>
+        <v>46.700000762939453</v>
       </c>
       <c r="E4">
         <v>16.79999923706055</v>
@@ -1096,9 +1156,9 @@
         <v>7178901</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>564029952</v>
@@ -1107,38 +1167,38 @@
         <v>63.5</v>
       </c>
       <c r="D5">
-        <v>67.30000305175781</v>
+        <v>67.300003051757813</v>
       </c>
       <c r="E5">
-        <v>64.69999694824219</v>
+        <v>64.699996948242188</v>
       </c>
       <c r="F5">
         <v>1052903</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>391152576</v>
       </c>
       <c r="C6">
-        <v>61.09999847412109</v>
+        <v>61.099998474121087</v>
       </c>
       <c r="D6">
-        <v>64.40000152587891</v>
+        <v>64.400001525878906</v>
       </c>
       <c r="E6">
-        <v>55.79999923706055</v>
+        <v>55.799999237060547</v>
       </c>
       <c r="F6">
         <v>701422</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>233261968</v>
@@ -1147,38 +1207,38 @@
         <v>56.5</v>
       </c>
       <c r="D7">
-        <v>71.30000305175781</v>
+        <v>71.300003051757813</v>
       </c>
       <c r="E7">
-        <v>41.90000152587891</v>
+        <v>41.900001525878913</v>
       </c>
       <c r="F7">
         <v>1317163</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>161057152</v>
       </c>
       <c r="C8">
-        <v>63.79999923706055</v>
+        <v>63.799999237060547</v>
       </c>
       <c r="D8">
         <v>69.5</v>
       </c>
       <c r="E8">
-        <v>58.20000076293945</v>
+        <v>58.200000762939453</v>
       </c>
       <c r="F8">
         <v>1134065</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>139232208</v>
@@ -1187,7 +1247,7 @@
         <v>26.10000038146973</v>
       </c>
       <c r="D9">
-        <v>32.90000152587891</v>
+        <v>32.900001525878913</v>
       </c>
       <c r="E9">
         <v>18.39999961853027</v>
@@ -1196,15 +1256,15 @@
         <v>1916012</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>108761680</v>
       </c>
       <c r="C10">
-        <v>65.40000152587891</v>
+        <v>65.400001525878906</v>
       </c>
       <c r="D10">
         <v>64.5</v>
@@ -1216,9 +1276,9 @@
         <v>381129</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>107197992</v>
@@ -1227,27 +1287,27 @@
         <v>64.5</v>
       </c>
       <c r="D11">
-        <v>67.90000152587891</v>
+        <v>67.900001525878906</v>
       </c>
       <c r="E11">
-        <v>64.19999694824219</v>
+        <v>64.199996948242188</v>
       </c>
       <c r="F11">
         <v>194817</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>99366400</v>
       </c>
       <c r="C12">
-        <v>38.90000152587891</v>
+        <v>38.900001525878913</v>
       </c>
       <c r="D12">
-        <v>49.79999923706055</v>
+        <v>49.799999237060547</v>
       </c>
       <c r="E12">
         <v>35</v>
@@ -1256,29 +1316,29 @@
         <v>536693</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>94250528</v>
       </c>
       <c r="C13">
-        <v>72.69999694824219</v>
+        <v>72.699996948242188</v>
       </c>
       <c r="D13">
-        <v>77.40000152587891</v>
+        <v>77.400001525878906</v>
       </c>
       <c r="E13">
-        <v>74.59999847412109</v>
+        <v>74.599998474121094</v>
       </c>
       <c r="F13">
         <v>229555</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>93565472</v>
@@ -1290,15 +1350,15 @@
         <v>73</v>
       </c>
       <c r="E14">
-        <v>67.09999847412109</v>
+        <v>67.099998474121094</v>
       </c>
       <c r="F14">
         <v>63126</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>89865312</v>
@@ -1307,7 +1367,7 @@
         <v>30.60000038146973</v>
       </c>
       <c r="D15">
-        <v>32.59999847412109</v>
+        <v>32.599998474121087</v>
       </c>
       <c r="E15">
         <v>28.5</v>
@@ -1316,15 +1376,15 @@
         <v>214966</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>84351560</v>
       </c>
       <c r="C16">
-        <v>69.90000152587891</v>
+        <v>69.900001525878906</v>
       </c>
       <c r="D16">
         <v>74.5</v>
@@ -1336,9 +1396,9 @@
         <v>211345</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>79533208</v>
@@ -1356,15 +1416,15 @@
         <v>670870</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>69936752</v>
       </c>
       <c r="C18">
-        <v>75.19999694824219</v>
+        <v>75.199996948242188</v>
       </c>
       <c r="D18">
         <v>81</v>
@@ -1376,49 +1436,49 @@
         <v>72816</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>62462920</v>
       </c>
       <c r="C19">
-        <v>60.40000152587891</v>
+        <v>60.400001525878913</v>
       </c>
       <c r="D19">
         <v>74.5</v>
       </c>
       <c r="E19">
-        <v>46.29999923706055</v>
+        <v>46.299999237060547</v>
       </c>
       <c r="F19">
         <v>533067</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>56036104</v>
       </c>
       <c r="C20">
-        <v>74.69999694824219</v>
+        <v>74.699996948242188</v>
       </c>
       <c r="D20">
-        <v>76.19999694824219</v>
+        <v>76.199996948242188</v>
       </c>
       <c r="E20">
-        <v>70.59999847412109</v>
+        <v>70.599998474121094</v>
       </c>
       <c r="F20">
         <v>105929</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>51222136</v>
@@ -1427,27 +1487,27 @@
         <v>57</v>
       </c>
       <c r="D21">
-        <v>65.69999694824219</v>
+        <v>65.699996948242188</v>
       </c>
       <c r="E21">
-        <v>48.29999923706055</v>
+        <v>48.299999237060547</v>
       </c>
       <c r="F21">
         <v>222650</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>46023016</v>
       </c>
       <c r="C22">
-        <v>33.09999847412109</v>
+        <v>33.099998474121087</v>
       </c>
       <c r="D22">
-        <v>42.40000152587891</v>
+        <v>42.400001525878913</v>
       </c>
       <c r="E22">
         <v>22.79999923706055</v>
@@ -1456,9 +1516,9 @@
         <v>640484</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>44361284</v>
@@ -1476,9 +1536,9 @@
         <v>369770</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>43372272</v>
@@ -1496,9 +1556,9 @@
         <v>1368407</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>43028920</v>
@@ -1507,38 +1567,38 @@
         <v>66</v>
       </c>
       <c r="D25">
-        <v>70.59999847412109</v>
+        <v>70.599998474121094</v>
       </c>
       <c r="E25">
-        <v>60.70000076293945</v>
+        <v>60.700000762939453</v>
       </c>
       <c r="F25">
         <v>300427</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>41886224</v>
       </c>
       <c r="C26">
-        <v>61.40000152587891</v>
+        <v>61.400001525878913</v>
       </c>
       <c r="D26">
-        <v>68.40000152587891</v>
+        <v>68.400001525878906</v>
       </c>
       <c r="E26">
-        <v>54.40000152587891</v>
+        <v>54.400001525878913</v>
       </c>
       <c r="F26">
         <v>101318</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>41466456</v>
@@ -1556,49 +1616,49 @@
         <v>504273</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>40273384</v>
       </c>
       <c r="C28">
-        <v>56.59999847412109</v>
+        <v>56.599998474121087</v>
       </c>
       <c r="D28">
-        <v>61.59999847412109</v>
+        <v>61.599998474121087</v>
       </c>
       <c r="E28">
-        <v>51.59999847412109</v>
+        <v>51.599998474121087</v>
       </c>
       <c r="F28">
         <v>237441</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>39701908</v>
       </c>
       <c r="C29">
-        <v>39.40000152587891</v>
+        <v>39.400001525878913</v>
       </c>
       <c r="D29">
-        <v>51.40000152587891</v>
+        <v>51.400001525878913</v>
       </c>
       <c r="E29">
-        <v>32.79999923706055</v>
+        <v>32.799999237060547</v>
       </c>
       <c r="F29">
         <v>169329</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>39232772</v>
@@ -1607,107 +1667,107 @@
         <v>20.29999923706055</v>
       </c>
       <c r="D30">
-        <v>32.09999847412109</v>
+        <v>32.099998474121087</v>
       </c>
       <c r="E30">
-        <v>8.600000381469727</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="F30">
         <v>621033</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>37158644</v>
       </c>
       <c r="C31">
-        <v>48.90000152587891</v>
+        <v>48.900001525878913</v>
       </c>
       <c r="D31">
-        <v>52.09999847412109</v>
+        <v>52.099998474121087</v>
       </c>
       <c r="E31">
-        <v>51.09999847412109</v>
+        <v>51.099998474121087</v>
       </c>
       <c r="F31">
         <v>25851</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>31553676</v>
       </c>
       <c r="C32">
-        <v>82.59999847412109</v>
+        <v>82.599998474121094</v>
       </c>
       <c r="D32">
         <v>78.5</v>
       </c>
       <c r="E32">
-        <v>73.80000305175781</v>
+        <v>73.800003051757813</v>
       </c>
       <c r="F32">
         <v>109701</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>27109766</v>
       </c>
       <c r="C33">
-        <v>53.09999847412109</v>
+        <v>53.099998474121087</v>
       </c>
       <c r="D33">
-        <v>63.09999847412109</v>
+        <v>63.099998474121087</v>
       </c>
       <c r="E33">
-        <v>41.90000152587891</v>
+        <v>41.900001525878913</v>
       </c>
       <c r="F33">
         <v>285221</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>26096108</v>
       </c>
       <c r="C34">
-        <v>59.79999923706055</v>
+        <v>59.799999237060547</v>
       </c>
       <c r="D34">
         <v>66</v>
       </c>
       <c r="E34">
-        <v>53.29999923706055</v>
+        <v>53.299999237060547</v>
       </c>
       <c r="F34">
         <v>167003</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>25912376</v>
       </c>
       <c r="C35">
-        <v>39.09999847412109</v>
+        <v>39.099998474121087</v>
       </c>
       <c r="D35">
-        <v>46.70000076293945</v>
+        <v>46.700000762939453</v>
       </c>
       <c r="E35">
         <v>31.10000038146973</v>
@@ -1716,18 +1776,18 @@
         <v>246687</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>23830570</v>
       </c>
       <c r="C36">
-        <v>72.19999694824219</v>
+        <v>72.199996948242188</v>
       </c>
       <c r="D36">
-        <v>79.59999847412109</v>
+        <v>79.599998474121094</v>
       </c>
       <c r="E36">
         <v>66</v>
@@ -1736,38 +1796,38 @@
         <v>213009</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>23540560</v>
       </c>
       <c r="C37">
-        <v>68.30000305175781</v>
+        <v>68.300003051757813</v>
       </c>
       <c r="D37">
-        <v>70.30000305175781</v>
+        <v>70.300003051757813</v>
       </c>
       <c r="E37">
-        <v>63.59999847412109</v>
+        <v>63.599998474121087</v>
       </c>
       <c r="F37">
         <v>20051</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>20571336</v>
       </c>
       <c r="C38">
-        <v>59.59999847412109</v>
+        <v>59.599998474121087</v>
       </c>
       <c r="D38">
-        <v>64.19999694824219</v>
+        <v>64.199996948242188</v>
       </c>
       <c r="E38">
         <v>57</v>
@@ -1776,49 +1836,49 @@
         <v>16381</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>20298170</v>
       </c>
       <c r="C39">
-        <v>89.59999847412109</v>
+        <v>89.599998474121094</v>
       </c>
       <c r="D39">
-        <v>79.80000305175781</v>
+        <v>79.800003051757813</v>
       </c>
       <c r="E39">
-        <v>43.59999847412109</v>
+        <v>43.599998474121087</v>
       </c>
       <c r="F39">
         <v>270811</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>19963360</v>
       </c>
       <c r="C40">
-        <v>92.90000152587891</v>
+        <v>92.900001525878906</v>
       </c>
       <c r="D40">
-        <v>85.90000152587891</v>
+        <v>85.900001525878906</v>
       </c>
       <c r="E40">
-        <v>76.09999847412109</v>
+        <v>76.099998474121094</v>
       </c>
       <c r="F40">
         <v>59157</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>18526940</v>
@@ -1836,9 +1896,9 @@
         <v>155946</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>17867952</v>
@@ -1856,9 +1916,9 @@
         <v>157673</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>17176604</v>
@@ -1876,38 +1936,38 @@
         <v>116932</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>16644129</v>
       </c>
       <c r="C44">
-        <v>72.59999847412109</v>
+        <v>72.599998474121094</v>
       </c>
       <c r="D44">
-        <v>74.80000305175781</v>
+        <v>74.800003051757813</v>
       </c>
       <c r="E44">
-        <v>73.19999694824219</v>
+        <v>73.199996948242188</v>
       </c>
       <c r="F44">
         <v>22185</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>15950862</v>
       </c>
       <c r="C45">
-        <v>77.59999847412109</v>
+        <v>77.599998474121094</v>
       </c>
       <c r="D45">
-        <v>86.90000152587891</v>
+        <v>86.900001525878906</v>
       </c>
       <c r="E45">
         <v>84</v>
@@ -1916,18 +1976,18 @@
         <v>23657</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>15057720</v>
       </c>
       <c r="C46">
-        <v>7.599999904632568</v>
+        <v>7.5999999046325684</v>
       </c>
       <c r="D46">
-        <v>9.699999809265137</v>
+        <v>9.6999998092651367</v>
       </c>
       <c r="E46">
         <v>5.5</v>
@@ -1936,29 +1996,29 @@
         <v>303446</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>14970627</v>
       </c>
       <c r="C47">
-        <v>82.69999694824219</v>
+        <v>82.699996948242188</v>
       </c>
       <c r="D47">
-        <v>67.30000305175781</v>
+        <v>67.300003051757813</v>
       </c>
       <c r="E47">
-        <v>62.09999847412109</v>
+        <v>62.099998474121087</v>
       </c>
       <c r="F47">
         <v>29290</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48">
         <v>14763330</v>
@@ -1967,18 +2027,18 @@
         <v>31.29999923706055</v>
       </c>
       <c r="D48">
-        <v>53.20000076293945</v>
+        <v>53.200000762939453</v>
       </c>
       <c r="E48">
-        <v>9.399999618530273</v>
+        <v>9.3999996185302734</v>
       </c>
       <c r="F48">
         <v>202336</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>14082920</v>
@@ -1990,15 +2050,15 @@
         <v>13.89999961853027</v>
       </c>
       <c r="E49">
-        <v>9.300000190734863</v>
+        <v>9.3000001907348633</v>
       </c>
       <c r="F49">
         <v>292376</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>14050000</v>
@@ -2016,49 +2076,49 @@
         <v>246316</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>14013701</v>
       </c>
       <c r="C51">
-        <v>37.59999847412109</v>
+        <v>37.599998474121087</v>
       </c>
       <c r="D51">
-        <v>40.40000152587891</v>
+        <v>40.400001525878913</v>
       </c>
       <c r="E51">
-        <v>34.40000152587891</v>
+        <v>34.400001525878913</v>
       </c>
       <c r="F51">
         <v>56369</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>13703515</v>
       </c>
       <c r="C52">
-        <v>66.30000305175781</v>
+        <v>66.300003051757813</v>
       </c>
       <c r="D52">
-        <v>69.19999694824219</v>
+        <v>69.199996948242188</v>
       </c>
       <c r="E52">
-        <v>63.29999923706055</v>
+        <v>63.299999237060547</v>
       </c>
       <c r="F52">
         <v>30188</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53">
         <v>13166598</v>
@@ -2076,38 +2136,38 @@
         <v>186712</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>12088975</v>
       </c>
       <c r="C54">
-        <v>56.40000152587891</v>
+        <v>56.400001525878913</v>
       </c>
       <c r="D54">
-        <v>59.90000152587891</v>
+        <v>59.900001525878913</v>
       </c>
       <c r="E54">
-        <v>56.59999847412109</v>
+        <v>56.599998474121087</v>
       </c>
       <c r="F54">
         <v>22088</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>11828826</v>
       </c>
       <c r="C55">
-        <v>57.09999847412109</v>
+        <v>57.099998474121087</v>
       </c>
       <c r="D55">
-        <v>58.20000076293945</v>
+        <v>58.200000762939453</v>
       </c>
       <c r="E55">
         <v>55.5</v>
@@ -2116,49 +2176,49 @@
         <v>22374</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56">
         <v>11788930</v>
       </c>
       <c r="C56">
-        <v>55.29999923706055</v>
+        <v>55.299999237060547</v>
       </c>
       <c r="D56">
         <v>57</v>
       </c>
       <c r="E56">
-        <v>55.79999923706055</v>
+        <v>55.799999237060547</v>
       </c>
       <c r="F56">
         <v>8874</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>11167215</v>
       </c>
       <c r="C57">
-        <v>57.09999847412109</v>
+        <v>57.099998474121087</v>
       </c>
       <c r="D57">
-        <v>60.20000076293945</v>
+        <v>60.200000762939453</v>
       </c>
       <c r="E57">
-        <v>57.70000076293945</v>
+        <v>57.700000762939453</v>
       </c>
       <c r="F57">
         <v>5617</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>10802266</v>
@@ -2170,35 +2230,35 @@
         <v>64.5</v>
       </c>
       <c r="E58">
-        <v>60.90000152587891</v>
+        <v>60.900001525878913</v>
       </c>
       <c r="F58">
         <v>9919</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>10358035</v>
       </c>
       <c r="C59">
-        <v>60.59999847412109</v>
+        <v>60.599998474121087</v>
       </c>
       <c r="D59">
-        <v>64.30000305175781</v>
+        <v>64.300003051757813</v>
       </c>
       <c r="E59">
-        <v>58.29999923706055</v>
+        <v>58.299999237060547</v>
       </c>
       <c r="F59">
         <v>28480</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>10114580</v>
@@ -2216,29 +2276,29 @@
         <v>20423</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61">
         <v>9306870</v>
       </c>
       <c r="C61">
-        <v>81.59999847412109</v>
+        <v>81.599998474121094</v>
       </c>
       <c r="D61">
-        <v>82.09999847412109</v>
+        <v>82.099998474121094</v>
       </c>
       <c r="E61">
-        <v>79.19999694824219</v>
+        <v>79.199996948242188</v>
       </c>
       <c r="F61">
         <v>23733</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>9001616</v>
@@ -2250,115 +2310,115 @@
         <v>10.5</v>
       </c>
       <c r="E62">
-        <v>6.599999904632568</v>
+        <v>6.5999999046325684</v>
       </c>
       <c r="F62">
         <v>163440</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>8815419</v>
       </c>
       <c r="C63">
-        <v>75.90000152587891</v>
+        <v>75.900001525878906</v>
       </c>
       <c r="D63">
-        <v>76.69999694824219</v>
+        <v>76.699996948242188</v>
       </c>
       <c r="E63">
-        <v>75.09999847412109</v>
+        <v>75.099998474121094</v>
       </c>
       <c r="F63">
         <v>4355</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>8622733</v>
       </c>
       <c r="C64">
-        <v>57.29999923706055</v>
+        <v>57.299999237060547</v>
       </c>
       <c r="D64">
         <v>59.5</v>
       </c>
       <c r="E64">
-        <v>55.20000076293945</v>
+        <v>55.200000762939453</v>
       </c>
       <c r="F64">
         <v>28497</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65">
         <v>8350575</v>
       </c>
       <c r="C65">
-        <v>41.79999923706055</v>
+        <v>41.799999237060547</v>
       </c>
       <c r="D65">
-        <v>47.20000076293945</v>
+        <v>47.200000762939453</v>
       </c>
       <c r="E65">
-        <v>36.40000152587891</v>
+        <v>36.400001525878913</v>
       </c>
       <c r="F65">
         <v>53286</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>7757255</v>
       </c>
       <c r="C66">
-        <v>72.40000152587891</v>
+        <v>72.400001525878906</v>
       </c>
       <c r="D66">
-        <v>77.19999694824219</v>
+        <v>77.199996948242188</v>
       </c>
       <c r="E66">
-        <v>67.59999847412109</v>
+        <v>67.599998474121094</v>
       </c>
       <c r="F66">
         <v>17426</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>7523959</v>
       </c>
       <c r="C67">
-        <v>68.19999694824219</v>
+        <v>68.199996948242188</v>
       </c>
       <c r="D67">
-        <v>74.80000305175781</v>
+        <v>74.800003051757813</v>
       </c>
       <c r="E67">
-        <v>61.59999847412109</v>
+        <v>61.599998474121087</v>
       </c>
       <c r="F67">
         <v>20879</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>7448300</v>
@@ -2370,15 +2430,15 @@
         <v>11.69999980926514</v>
       </c>
       <c r="E68">
-        <v>7.300000190734863</v>
+        <v>7.3000001907348633</v>
       </c>
       <c r="F68">
         <v>110874</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69">
         <v>7425277</v>
@@ -2396,69 +2456,69 @@
         <v>36864</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>7396969</v>
       </c>
       <c r="C70">
-        <v>57.29999923706055</v>
+        <v>57.299999237060547</v>
       </c>
       <c r="D70">
-        <v>62.79999923706055</v>
+        <v>62.799999237060547</v>
       </c>
       <c r="E70">
-        <v>51.59999847412109</v>
+        <v>51.599998474121087</v>
       </c>
       <c r="F70">
         <v>32549</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>7200652</v>
       </c>
       <c r="C71">
-        <v>72.69999694824219</v>
+        <v>72.699996948242188</v>
       </c>
       <c r="D71">
-        <v>76.09999847412109</v>
+        <v>76.099998474121094</v>
       </c>
       <c r="E71">
-        <v>74.09999847412109</v>
+        <v>74.099998474121094</v>
       </c>
       <c r="F71">
         <v>9025</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72">
         <v>6960192</v>
       </c>
       <c r="C72">
-        <v>34.59999847412109</v>
+        <v>34.599998474121087</v>
       </c>
       <c r="D72">
-        <v>36.59999847412109</v>
+        <v>36.599998474121087</v>
       </c>
       <c r="E72">
-        <v>32.29999923706055</v>
+        <v>32.299999237060547</v>
       </c>
       <c r="F72">
         <v>16091</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>6757605</v>
@@ -2476,9 +2536,9 @@
         <v>73439</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74">
         <v>6700654</v>
@@ -2487,7 +2547,7 @@
         <v>29</v>
       </c>
       <c r="D74">
-        <v>36.79999923706055</v>
+        <v>36.799999237060547</v>
       </c>
       <c r="E74">
         <v>28.20000076293945</v>
@@ -2496,29 +2556,29 @@
         <v>33238</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>6552979</v>
       </c>
       <c r="C75">
-        <v>1.600000023841858</v>
+        <v>1.6000000238418579</v>
       </c>
       <c r="D75">
-        <v>2.299999952316284</v>
+        <v>2.2999999523162842</v>
       </c>
       <c r="E75">
-        <v>0.8999999761581421</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="F75">
         <v>59719</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>6409263</v>
@@ -2527,47 +2587,47 @@
         <v>46</v>
       </c>
       <c r="D76">
-        <v>43.40000152587891</v>
+        <v>43.400001525878913</v>
       </c>
       <c r="E76">
-        <v>41.40000152587891</v>
+        <v>41.400001525878913</v>
       </c>
       <c r="F76">
         <v>15790</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77">
         <v>6214949</v>
       </c>
       <c r="C77">
-        <v>88.30000305175781</v>
+        <v>88.300003051757813</v>
       </c>
       <c r="D77">
-        <v>77.69999694824219</v>
+        <v>77.699996948242188</v>
       </c>
       <c r="E77">
-        <v>72.90000152587891</v>
+        <v>72.900001525878906</v>
       </c>
       <c r="F77">
         <v>20806</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78">
         <v>5367816</v>
       </c>
       <c r="C78">
-        <v>63.59999847412109</v>
+        <v>63.599998474121087</v>
       </c>
       <c r="D78">
-        <v>69.69999694824219</v>
+        <v>69.699996948242188</v>
       </c>
       <c r="E78">
         <v>57.5</v>
@@ -2576,9 +2636,9 @@
         <v>16408</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79">
         <v>5278479</v>
@@ -2596,9 +2656,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80">
         <v>5263782</v>
@@ -2616,9 +2676,9 @@
         <v>31282</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81">
         <v>5196072</v>
@@ -2627,7 +2687,7 @@
         <v>26.60000038146973</v>
       </c>
       <c r="D81">
-        <v>32.79999923706055</v>
+        <v>32.799999237060547</v>
       </c>
       <c r="E81">
         <v>20.39999961853027</v>
@@ -2636,29 +2696,29 @@
         <v>46577</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>5087231</v>
       </c>
       <c r="C82">
-        <v>51.59999847412109</v>
+        <v>51.599998474121087</v>
       </c>
       <c r="D82">
         <v>66</v>
       </c>
       <c r="E82">
-        <v>37.20000076293945</v>
+        <v>37.200000762939453</v>
       </c>
       <c r="F82">
         <v>38574</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83">
         <v>4946987</v>
@@ -2667,67 +2727,67 @@
         <v>59</v>
       </c>
       <c r="D83">
-        <v>69.09999847412109</v>
+        <v>69.099998474121094</v>
       </c>
       <c r="E83">
-        <v>48.90000152587891</v>
+        <v>48.900001525878913</v>
       </c>
       <c r="F83">
         <v>38813</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>4762272</v>
       </c>
       <c r="C84">
-        <v>43.70000076293945</v>
+        <v>43.700000762939453</v>
       </c>
       <c r="D84">
-        <v>44.79999923706055</v>
+        <v>44.799999237060547</v>
       </c>
       <c r="E84">
-        <v>41.29999923706055</v>
+        <v>41.299999237060547</v>
       </c>
       <c r="F84">
         <v>6412</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85">
         <v>4702517</v>
       </c>
       <c r="C85">
-        <v>84.09999847412109</v>
+        <v>84.099998474121094</v>
       </c>
       <c r="D85">
-        <v>84.40000152587891</v>
+        <v>84.400001525878906</v>
       </c>
       <c r="E85">
-        <v>79.40000152587891</v>
+        <v>79.400001525878906</v>
       </c>
       <c r="F85">
         <v>4415</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B86">
         <v>4545348</v>
       </c>
       <c r="C86">
-        <v>68.90000152587891</v>
+        <v>68.900001525878906</v>
       </c>
       <c r="D86">
-        <v>68.30000305175781</v>
+        <v>68.300003051757813</v>
       </c>
       <c r="E86">
         <v>64.5</v>
@@ -2736,9 +2796,9 @@
         <v>16573</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87">
         <v>4488153</v>
@@ -2747,7 +2807,7 @@
         <v>31.39999961853027</v>
       </c>
       <c r="D87">
-        <v>36.70000076293945</v>
+        <v>36.700000762939453</v>
       </c>
       <c r="E87">
         <v>26.10000038146973</v>
@@ -2756,9 +2816,9 @@
         <v>9935</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88">
         <v>4402770</v>
@@ -2767,7 +2827,7 @@
         <v>30.70000076293945</v>
       </c>
       <c r="D88">
-        <v>39.09999847412109</v>
+        <v>39.099998474121087</v>
       </c>
       <c r="E88">
         <v>26.70000076293945</v>
@@ -2776,9 +2836,9 @@
         <v>9906</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>3872421</v>
@@ -2796,9 +2856,9 @@
         <v>70941</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>3740279</v>
@@ -2816,49 +2876,49 @@
         <v>54654</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>3644423</v>
       </c>
       <c r="C91">
-        <v>5.800000190734863</v>
+        <v>5.8000001907348633</v>
       </c>
       <c r="D91">
-        <v>6.099999904632568</v>
+        <v>6.0999999046325684</v>
       </c>
       <c r="E91">
-        <v>5.599999904632568</v>
+        <v>5.5999999046325684</v>
       </c>
       <c r="F91">
         <v>54234</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>3613357</v>
       </c>
       <c r="C92">
-        <v>3.799999952316284</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="D92">
-        <v>5.699999809265137</v>
+        <v>5.6999998092651367</v>
       </c>
       <c r="E92">
-        <v>1.899999976158142</v>
+        <v>1.8999999761581421</v>
       </c>
       <c r="F92">
         <v>30756</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>3535329</v>
@@ -2867,18 +2927,18 @@
         <v>1.799999952316284</v>
       </c>
       <c r="D93">
-        <v>2.900000095367432</v>
+        <v>2.9000000953674321</v>
       </c>
       <c r="E93">
-        <v>0.800000011920929</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="F93">
         <v>50195</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>3413174</v>
@@ -2890,15 +2950,15 @@
         <v>44.5</v>
       </c>
       <c r="E94">
-        <v>41.70000076293945</v>
+        <v>41.700000762939453</v>
       </c>
       <c r="F94">
         <v>6307</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>3389520</v>
@@ -2916,9 +2976,9 @@
         <v>26145</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>3199916</v>
@@ -2930,44 +2990,44 @@
         <v>62.5</v>
       </c>
       <c r="E96">
-        <v>57.70000076293945</v>
+        <v>57.700000762939453</v>
       </c>
       <c r="F96">
         <v>21363</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>3134137</v>
       </c>
       <c r="C97">
-        <v>5.199999809265137</v>
+        <v>5.1999998092651367</v>
       </c>
       <c r="D97">
-        <v>7.099999904632568</v>
+        <v>7.0999999046325684</v>
       </c>
       <c r="E97">
-        <v>3.299999952316284</v>
+        <v>3.2999999523162842</v>
       </c>
       <c r="F97">
         <v>44858</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>3133227</v>
       </c>
       <c r="C98">
-        <v>4.199999809265137</v>
+        <v>4.1999998092651367</v>
       </c>
       <c r="D98">
-        <v>2.599999904632568</v>
+        <v>2.5999999046325679</v>
       </c>
       <c r="E98">
         <v>1.200000047683716</v>
@@ -2976,9 +3036,9 @@
         <v>765279</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>2929966</v>
@@ -2996,9 +3056,9 @@
         <v>28922</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>2568320</v>
@@ -3007,7 +3067,7 @@
         <v>86.5</v>
       </c>
       <c r="D100">
-        <v>78.40000152587891</v>
+        <v>78.400001525878906</v>
       </c>
       <c r="E100">
         <v>75</v>
@@ -3016,9 +3076,9 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>2521738</v>
@@ -3036,9 +3096,9 @@
         <v>5780</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>2380000</v>
@@ -3047,7 +3107,7 @@
         <v>25.10000038146973</v>
       </c>
       <c r="D102">
-        <v>56.20000076293945</v>
+        <v>56.200000762939453</v>
       </c>
       <c r="E102">
         <v>19.39999961853027</v>
@@ -3056,38 +3116,38 @@
         <v>12990</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>2113404</v>
       </c>
       <c r="C103">
-        <v>52.09999847412109</v>
+        <v>52.099998474121087</v>
       </c>
       <c r="D103">
-        <v>54.09999847412109</v>
+        <v>54.099998474121087</v>
       </c>
       <c r="E103">
-        <v>48.09999847412109</v>
+        <v>48.099998474121087</v>
       </c>
       <c r="F103">
         <v>6460</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>2058553</v>
       </c>
       <c r="C104">
-        <v>2.599999904632568</v>
+        <v>2.5999999046325679</v>
       </c>
       <c r="D104">
-        <v>4.099999904632568</v>
+        <v>4.0999999046325684</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3096,29 +3156,29 @@
         <v>90201</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>1968171</v>
       </c>
       <c r="C105">
-        <v>3.700000047683716</v>
+        <v>3.7000000476837158</v>
       </c>
       <c r="D105">
-        <v>5.599999904632568</v>
+        <v>5.5999999046325684</v>
       </c>
       <c r="E105">
-        <v>1.399999976158142</v>
+        <v>1.3999999761581421</v>
       </c>
       <c r="F105">
         <v>33239</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>1784832</v>
@@ -3127,7 +3187,7 @@
         <v>5.5</v>
       </c>
       <c r="D106">
-        <v>7.599999904632568</v>
+        <v>7.5999999046325684</v>
       </c>
       <c r="E106">
         <v>3.5</v>
@@ -3136,9 +3196,9 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B107">
         <v>1760878</v>
@@ -3156,9 +3216,9 @@
         <v>12798</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108">
         <v>1715133</v>
@@ -3167,7 +3227,7 @@
         <v>29.89999961853027</v>
       </c>
       <c r="D108">
-        <v>32.70000076293945</v>
+        <v>32.700000762939453</v>
       </c>
       <c r="E108">
         <v>27</v>
@@ -3176,38 +3236,38 @@
         <v>8220</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B109">
         <v>1699898</v>
       </c>
       <c r="C109">
-        <v>6.199999809265137</v>
+        <v>6.1999998092651367</v>
       </c>
       <c r="D109">
         <v>8.5</v>
       </c>
       <c r="E109">
-        <v>3.900000095367432</v>
+        <v>3.9000000953674321</v>
       </c>
       <c r="F109">
         <v>41480</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B110">
         <v>1653422</v>
       </c>
       <c r="C110">
-        <v>2.700000047683716</v>
+        <v>2.7000000476837158</v>
       </c>
       <c r="D110">
-        <v>2.900000095367432</v>
+        <v>2.9000000953674321</v>
       </c>
       <c r="E110">
         <v>2.5</v>
@@ -3216,15 +3276,15 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>1650828</v>
       </c>
       <c r="C111">
-        <v>1.899999976158142</v>
+        <v>1.8999999761581421</v>
       </c>
       <c r="D111">
         <v>1.5</v>
@@ -3236,9 +3296,9 @@
         <v>21549</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112">
         <v>1633952</v>
@@ -3247,27 +3307,27 @@
         <v>64.5</v>
       </c>
       <c r="D112">
-        <v>66.80000305175781</v>
+        <v>66.800003051757813</v>
       </c>
       <c r="E112">
-        <v>62.20000076293945</v>
+        <v>62.200000762939453</v>
       </c>
       <c r="F112">
         <v>1155</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113">
         <v>1621953</v>
       </c>
       <c r="C113">
-        <v>42.20000076293945</v>
+        <v>42.200000762939453</v>
       </c>
       <c r="D113">
-        <v>47.40000152587891</v>
+        <v>47.400001525878913</v>
       </c>
       <c r="E113">
         <v>43.5</v>
@@ -3276,9 +3336,9 @@
         <v>4283</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114">
         <v>1546967</v>
@@ -3290,15 +3350,15 @@
         <v>20.70000076293945</v>
       </c>
       <c r="E114">
-        <v>2.799999952316284</v>
+        <v>2.7999999523162842</v>
       </c>
       <c r="F114">
         <v>11651</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115">
         <v>1495762</v>
@@ -3307,18 +3367,18 @@
         <v>36</v>
       </c>
       <c r="D115">
-        <v>37.59999847412109</v>
+        <v>37.599998474121087</v>
       </c>
       <c r="E115">
-        <v>34.29999923706055</v>
+        <v>34.299999237060547</v>
       </c>
       <c r="F115">
         <v>5856</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116">
         <v>1422970</v>
@@ -3336,9 +3396,9 @@
         <v>10359</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117">
         <v>1392707</v>
@@ -3356,38 +3416,38 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118">
         <v>1361564</v>
       </c>
       <c r="C118">
-        <v>51.40000152587891</v>
+        <v>51.400001525878913</v>
       </c>
       <c r="D118">
         <v>57</v>
       </c>
       <c r="E118">
-        <v>45.70000076293945</v>
+        <v>45.700000762939453</v>
       </c>
       <c r="F118">
         <v>3361</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119">
         <v>1283840</v>
       </c>
       <c r="C119">
-        <v>35.70000076293945</v>
+        <v>35.700000762939453</v>
       </c>
       <c r="D119">
-        <v>43.29999923706055</v>
+        <v>43.299999237060547</v>
       </c>
       <c r="E119">
         <v>28.10000038146973</v>
@@ -3396,9 +3456,9 @@
         <v>15384</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120">
         <v>1147010</v>
@@ -3407,58 +3467,58 @@
         <v>65.5</v>
       </c>
       <c r="D120">
-        <v>67.90000152587891</v>
+        <v>67.900001525878906</v>
       </c>
       <c r="E120">
-        <v>63.09999847412109</v>
+        <v>63.099998474121087</v>
       </c>
       <c r="F120">
         <v>1090</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>1087426</v>
       </c>
       <c r="C121">
-        <v>2.700000047683716</v>
+        <v>2.7000000476837158</v>
       </c>
       <c r="D121">
-        <v>3.900000095367432</v>
+        <v>3.9000000953674321</v>
       </c>
       <c r="E121">
-        <v>2.400000095367432</v>
+        <v>2.4000000953674321</v>
       </c>
       <c r="F121">
         <v>7915</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B122">
         <v>1068414</v>
       </c>
       <c r="C122">
-        <v>71.69999694824219</v>
+        <v>71.699996948242188</v>
       </c>
       <c r="D122">
-        <v>77.09999847412109</v>
+        <v>77.099998474121094</v>
       </c>
       <c r="E122">
-        <v>66.30000305175781</v>
+        <v>66.300003051757813</v>
       </c>
       <c r="F122">
         <v>3185</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123">
         <v>1060145</v>
@@ -3476,9 +3536,9 @@
         <v>7334</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124">
         <v>1047111</v>
@@ -3490,24 +3550,24 @@
         <v>41.5</v>
       </c>
       <c r="E124">
-        <v>34.40000152587891</v>
+        <v>34.400001525878913</v>
       </c>
       <c r="F124">
         <v>3453</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B125">
         <v>997632</v>
       </c>
       <c r="C125">
-        <v>6.199999809265137</v>
+        <v>6.1999998092651367</v>
       </c>
       <c r="D125">
-        <v>7.400000095367432</v>
+        <v>7.4000000953674316</v>
       </c>
       <c r="E125">
         <v>5</v>
@@ -3516,9 +3576,9 @@
         <v>23544</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126">
         <v>975268</v>
@@ -3527,18 +3587,18 @@
         <v>54.5</v>
       </c>
       <c r="D126">
-        <v>65.69999694824219</v>
+        <v>65.699996948242188</v>
       </c>
       <c r="E126">
-        <v>43.29999923706055</v>
+        <v>43.299999237060547</v>
       </c>
       <c r="F126">
         <v>9017</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127">
         <v>890122</v>
@@ -3547,7 +3607,7 @@
         <v>11</v>
       </c>
       <c r="D127">
-        <v>7.900000095367432</v>
+        <v>7.9000000953674316</v>
       </c>
       <c r="E127">
         <v>0.5</v>
@@ -3556,29 +3616,29 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B128">
         <v>818593</v>
       </c>
       <c r="C128">
-        <v>82.90000152587891</v>
+        <v>82.900001525878906</v>
       </c>
       <c r="D128">
-        <v>85.09999847412109</v>
+        <v>85.099998474121094</v>
       </c>
       <c r="E128">
-        <v>85.09999847412109</v>
+        <v>85.099998474121094</v>
       </c>
       <c r="F128">
         <v>824</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129">
         <v>788502</v>
@@ -3587,38 +3647,38 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>7.699999809265137</v>
+        <v>7.6999998092651367</v>
       </c>
       <c r="E129">
-        <v>4.400000095367432</v>
+        <v>4.4000000953674316</v>
       </c>
       <c r="F129">
         <v>2155</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B130">
         <v>784482</v>
       </c>
       <c r="C130">
-        <v>63.90000152587891</v>
+        <v>63.900001525878913</v>
       </c>
       <c r="D130">
-        <v>68.09999847412109</v>
+        <v>68.099998474121094</v>
       </c>
       <c r="E130">
-        <v>65.09999847412109</v>
+        <v>65.099998474121094</v>
       </c>
       <c r="F130">
         <v>592</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131">
         <v>743184</v>
@@ -3630,55 +3690,55 @@
         <v>19.29999923706055</v>
       </c>
       <c r="E131">
-        <v>8.899999618530273</v>
+        <v>8.8999996185302734</v>
       </c>
       <c r="F131">
         <v>4756</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B132">
         <v>727664</v>
       </c>
       <c r="C132">
-        <v>97.80000305175781</v>
+        <v>97.800003051757813</v>
       </c>
       <c r="D132">
         <v>105.3000030517578</v>
       </c>
       <c r="E132">
-        <v>90.30000305175781</v>
+        <v>90.300003051757813</v>
       </c>
       <c r="F132">
         <v>759</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B133">
         <v>711264</v>
       </c>
       <c r="C133">
-        <v>1.899999976158142</v>
+        <v>1.8999999761581421</v>
       </c>
       <c r="D133">
         <v>1.799999952316284</v>
       </c>
       <c r="E133">
-        <v>2.099999904632568</v>
+        <v>2.0999999046325679</v>
       </c>
       <c r="F133">
         <v>6903</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B134">
         <v>675891</v>
@@ -3687,7 +3747,7 @@
         <v>26.10000038146973</v>
       </c>
       <c r="D134">
-        <v>32.79999923706055</v>
+        <v>32.799999237060547</v>
       </c>
       <c r="E134">
         <v>19.39999961853027</v>
@@ -3696,29 +3756,29 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B135">
         <v>649564</v>
       </c>
       <c r="C135">
-        <v>47.79999923706055</v>
+        <v>47.799999237060547</v>
       </c>
       <c r="D135">
-        <v>51.20000076293945</v>
+        <v>51.200000762939453</v>
       </c>
       <c r="E135">
-        <v>44.59999847412109</v>
+        <v>44.599998474121087</v>
       </c>
       <c r="F135">
         <v>4123</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B136">
         <v>621853</v>
@@ -3730,15 +3790,15 @@
         <v>1.700000047683716</v>
       </c>
       <c r="E136">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="F136">
         <v>9294</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137">
         <v>606699</v>
@@ -3756,38 +3816,38 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138">
         <v>551110</v>
       </c>
       <c r="C138">
-        <v>77.19999694824219</v>
+        <v>77.199996948242188</v>
       </c>
       <c r="D138">
-        <v>78.80000305175781</v>
+        <v>78.800003051757813</v>
       </c>
       <c r="E138">
-        <v>77.19999694824219</v>
+        <v>77.199996948242188</v>
       </c>
       <c r="F138">
         <v>1103</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B139">
         <v>538748</v>
       </c>
       <c r="C139">
-        <v>34.29999923706055</v>
+        <v>34.299999237060547</v>
       </c>
       <c r="D139">
-        <v>45.20000076293945</v>
+        <v>45.200000762939453</v>
       </c>
       <c r="E139">
         <v>23.39999961853027</v>
@@ -3796,9 +3856,9 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B140">
         <v>533949</v>
@@ -3816,9 +3876,9 @@
         <v>23498</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B141">
         <v>464359</v>
@@ -3830,104 +3890,104 @@
         <v>1.700000047683716</v>
       </c>
       <c r="E141">
-        <v>1.399999976158142</v>
+        <v>1.3999999761581421</v>
       </c>
       <c r="F141">
         <v>9868</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142">
         <v>461201</v>
       </c>
       <c r="C142">
-        <v>0.8999999761581421</v>
+        <v>0.89999997615814209</v>
       </c>
       <c r="D142">
         <v>1.5</v>
       </c>
       <c r="E142">
-        <v>0.300000011920929</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="F142">
         <v>995</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B143">
         <v>452830</v>
       </c>
       <c r="C143">
-        <v>36.29999923706055</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D143">
-        <v>38.59999847412109</v>
+        <v>38.599998474121087</v>
       </c>
       <c r="E143">
-        <v>33.70000076293945</v>
+        <v>33.700000762939453</v>
       </c>
       <c r="F143">
         <v>2132</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B144">
         <v>443676</v>
       </c>
       <c r="C144">
-        <v>48.20000076293945</v>
+        <v>48.200000762939453</v>
       </c>
       <c r="D144">
-        <v>58.70000076293945</v>
+        <v>58.700000762939453</v>
       </c>
       <c r="E144">
-        <v>37.79999923706055</v>
+        <v>37.799999237060547</v>
       </c>
       <c r="F144">
         <v>5261</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B145">
         <v>417648</v>
       </c>
       <c r="C145">
-        <v>0.800000011920929</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="D145">
-        <v>0.699999988079071</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="E145">
-        <v>0.699999988079071</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="F145">
         <v>5145</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146">
         <v>414300</v>
       </c>
       <c r="C146">
-        <v>37.70000076293945</v>
+        <v>37.700000762939453</v>
       </c>
       <c r="D146">
-        <v>51.70000076293945</v>
+        <v>51.700000762939453</v>
       </c>
       <c r="E146">
         <v>23.70000076293945</v>
@@ -3936,35 +3996,35 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B147">
         <v>408535</v>
       </c>
       <c r="C147">
-        <v>6.900000095367432</v>
+        <v>6.9000000953674316</v>
       </c>
       <c r="D147">
-        <v>8.899999618530273</v>
+        <v>8.8999996185302734</v>
       </c>
       <c r="E147">
-        <v>4.800000190734863</v>
+        <v>4.8000001907348633</v>
       </c>
       <c r="F147">
         <v>5965</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B148">
         <v>407502</v>
       </c>
       <c r="C148">
-        <v>8.300000190734863</v>
+        <v>8.3000001907348633</v>
       </c>
       <c r="D148">
         <v>10.5</v>
@@ -3976,15 +4036,15 @@
         <v>4761</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B149">
         <v>405053</v>
       </c>
       <c r="C149">
-        <v>1.100000023841858</v>
+        <v>1.1000000238418579</v>
       </c>
       <c r="D149">
         <v>1.700000047683716</v>
@@ -3996,9 +4056,9 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B150">
         <v>394029</v>
@@ -4007,7 +4067,7 @@
         <v>33</v>
       </c>
       <c r="D150">
-        <v>37.79999923706055</v>
+        <v>37.799999237060547</v>
       </c>
       <c r="E150">
         <v>28.20000076293945</v>
@@ -4016,15 +4076,15 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B151">
         <v>389807</v>
       </c>
       <c r="C151">
-        <v>0.300000011920929</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="D151">
         <v>-999</v>
@@ -4036,9 +4096,9 @@
         <v>5687</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B152">
         <v>387510</v>
@@ -4056,9 +4116,9 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153">
         <v>336863</v>
@@ -4076,15 +4136,15 @@
         <v>249</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154">
         <v>332954</v>
       </c>
       <c r="C154">
-        <v>8.100000381469727</v>
+        <v>8.1000003814697266</v>
       </c>
       <c r="D154">
         <v>12.19999980926514</v>
@@ -4096,18 +4156,18 @@
         <v>6246</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B155">
         <v>329905</v>
       </c>
       <c r="C155">
-        <v>3.599999904632568</v>
+        <v>3.5999999046325679</v>
       </c>
       <c r="D155">
-        <v>4.699999809265137</v>
+        <v>4.6999998092651367</v>
       </c>
       <c r="E155">
         <v>2.5</v>
@@ -4116,9 +4176,9 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B156">
         <v>322934</v>
@@ -4130,24 +4190,24 @@
         <v>1</v>
       </c>
       <c r="E156">
-        <v>0.05000000074505806</v>
+        <v>5.000000074505806E-2</v>
       </c>
       <c r="F156">
         <v>244</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157">
         <v>304218</v>
       </c>
       <c r="C157">
-        <v>37.29999923706055</v>
+        <v>37.299999237060547</v>
       </c>
       <c r="D157">
-        <v>47.59999847412109</v>
+        <v>47.599998474121087</v>
       </c>
       <c r="E157">
         <v>28.20000076293945</v>
@@ -4156,49 +4216,49 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B158">
         <v>284246</v>
       </c>
       <c r="C158">
-        <v>3.099999904632568</v>
+        <v>3.0999999046325679</v>
       </c>
       <c r="D158">
-        <v>2.299999952316284</v>
+        <v>2.2999999523162842</v>
       </c>
       <c r="E158">
-        <v>0.6000000238418579</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="F158">
         <v>9467</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159">
         <v>254545</v>
       </c>
       <c r="C159">
-        <v>0.6000000238418579</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="D159">
         <v>1.200000047683716</v>
       </c>
       <c r="E159">
-        <v>0.800000011920929</v>
+        <v>0.80000001192092896</v>
       </c>
       <c r="F159">
         <v>8839</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160">
         <v>240002</v>
@@ -4216,18 +4276,18 @@
         <v>888</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161">
         <v>234124</v>
       </c>
       <c r="C161">
-        <v>40.79999923706055</v>
+        <v>40.799999237060547</v>
       </c>
       <c r="D161">
-        <v>46.09999847412109</v>
+        <v>46.099998474121087</v>
       </c>
       <c r="E161">
         <v>35.5</v>
@@ -4236,9 +4296,9 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162">
         <v>232375</v>
@@ -4247,7 +4307,7 @@
         <v>1.5</v>
       </c>
       <c r="D162">
-        <v>2.400000095367432</v>
+        <v>2.4000000953674321</v>
       </c>
       <c r="E162">
         <v>0.5</v>
@@ -4256,9 +4316,9 @@
         <v>805</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B163">
         <v>226269</v>
@@ -4270,35 +4330,35 @@
         <v>1.299999952316284</v>
       </c>
       <c r="E163">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F163">
         <v>1696</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B164">
         <v>207195</v>
       </c>
       <c r="C164">
-        <v>4.400000095367432</v>
+        <v>4.4000000953674316</v>
       </c>
       <c r="D164">
-        <v>7.800000190734863</v>
+        <v>7.8000001907348633</v>
       </c>
       <c r="E164">
-        <v>7.300000190734863</v>
+        <v>7.3000001907348633</v>
       </c>
       <c r="F164">
         <v>357</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B165">
         <v>187160</v>
@@ -4310,35 +4370,35 @@
         <v>3</v>
       </c>
       <c r="E165">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F165">
         <v>212</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166">
         <v>186793</v>
       </c>
       <c r="C166">
-        <v>57.29999923706055</v>
+        <v>57.299999237060547</v>
       </c>
       <c r="D166">
         <v>60</v>
       </c>
       <c r="E166">
-        <v>54.59999847412109</v>
+        <v>54.599998474121087</v>
       </c>
       <c r="F166">
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B167">
         <v>184461</v>
@@ -4356,29 +4416,29 @@
         <v>210</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168">
         <v>180320</v>
       </c>
       <c r="C168">
-        <v>4.300000190734863</v>
+        <v>4.3000001907348633</v>
       </c>
       <c r="D168">
-        <v>4.900000095367432</v>
+        <v>4.9000000953674316</v>
       </c>
       <c r="E168">
-        <v>3.799999952316284</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="F168">
         <v>1099</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169">
         <v>164776</v>
@@ -4387,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>1.399999976158142</v>
+        <v>1.3999999761581421</v>
       </c>
       <c r="E169">
         <v>0.5</v>
@@ -4396,9 +4456,9 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170">
         <v>155753</v>
@@ -4410,15 +4470,15 @@
         <v>72.5</v>
       </c>
       <c r="E170">
-        <v>66.59999847412109</v>
+        <v>66.599998474121094</v>
       </c>
       <c r="F170">
         <v>150</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171">
         <v>150891</v>
@@ -4436,18 +4496,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B172">
         <v>149431</v>
       </c>
       <c r="C172">
-        <v>37.20000076293945</v>
+        <v>37.200000762939453</v>
       </c>
       <c r="D172">
-        <v>49.29999923706055</v>
+        <v>49.299999237060547</v>
       </c>
       <c r="E172">
         <v>25</v>
@@ -4456,135 +4516,135 @@
         <v>981</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173">
         <v>148402</v>
       </c>
       <c r="C173">
-        <v>77.30000305175781</v>
+        <v>77.300003051757813</v>
       </c>
       <c r="D173">
         <v>80.5</v>
       </c>
       <c r="E173">
-        <v>74.09999847412109</v>
+        <v>74.099998474121094</v>
       </c>
       <c r="F173">
         <v>154</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174">
         <v>142548</v>
       </c>
       <c r="C174">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="D174">
-        <v>0.699999988079071</v>
+        <v>0.69999998807907104</v>
       </c>
       <c r="E174">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F174">
         <v>2785</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B175">
         <v>134945</v>
       </c>
       <c r="C175">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="D175">
-        <v>0.1000000014901161</v>
+        <v>0.10000000149011611</v>
       </c>
       <c r="E175">
-        <v>0.05000000074505806</v>
+        <v>5.000000074505806E-2</v>
       </c>
       <c r="F175">
         <v>432</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B176">
         <v>129318</v>
       </c>
       <c r="C176">
-        <v>76.09999847412109</v>
+        <v>76.099998474121094</v>
       </c>
       <c r="D176">
         <v>77</v>
       </c>
       <c r="E176">
-        <v>75.09999847412109</v>
+        <v>75.099998474121094</v>
       </c>
       <c r="F176">
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B177">
         <v>110096</v>
       </c>
       <c r="C177">
-        <v>84.69999694824219</v>
+        <v>84.699996948242188</v>
       </c>
       <c r="D177">
-        <v>84.69999694824219</v>
+        <v>84.699996948242188</v>
       </c>
       <c r="E177">
-        <v>84.69999694824219</v>
+        <v>84.699996948242188</v>
       </c>
       <c r="F177">
         <v>685</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B178">
         <v>103751</v>
       </c>
       <c r="C178">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="D178">
-        <v>0.6000000238418579</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="E178">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F178">
         <v>996</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B179">
         <v>102357</v>
       </c>
       <c r="C179">
-        <v>89.80000305175781</v>
+        <v>89.800003051757813</v>
       </c>
       <c r="D179">
         <v>124.5</v>
@@ -4596,9 +4656,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B180">
         <v>101898</v>
@@ -4616,69 +4676,69 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B181">
         <v>97744</v>
       </c>
       <c r="C181">
-        <v>7.599999904632568</v>
+        <v>7.5999999046325684</v>
       </c>
       <c r="D181">
         <v>11.60000038146973</v>
       </c>
       <c r="E181">
-        <v>3.599999904632568</v>
+        <v>3.5999999046325679</v>
       </c>
       <c r="F181">
         <v>2902</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B182">
         <v>95918</v>
       </c>
       <c r="C182">
-        <v>62.29999923706055</v>
+        <v>62.299999237060547</v>
       </c>
       <c r="D182">
-        <v>68.69999694824219</v>
+        <v>68.699996948242188</v>
       </c>
       <c r="E182">
-        <v>55.90000152587891</v>
+        <v>55.900001525878913</v>
       </c>
       <c r="F182">
         <v>113</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B183">
         <v>94715</v>
       </c>
       <c r="C183">
-        <v>2.700000047683716</v>
+        <v>2.7000000476837158</v>
       </c>
       <c r="D183">
-        <v>4.900000095367432</v>
+        <v>4.9000000953674316</v>
       </c>
       <c r="E183">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="F183">
         <v>3807</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B184">
         <v>89252</v>
@@ -4687,27 +4747,27 @@
         <v>46</v>
       </c>
       <c r="D184">
-        <v>50.09999847412109</v>
+        <v>50.099998474121087</v>
       </c>
       <c r="E184">
-        <v>41.90000152587891</v>
+        <v>41.900001525878913</v>
       </c>
       <c r="F184">
         <v>1048</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B185">
         <v>86676</v>
       </c>
       <c r="C185">
-        <v>68.80000305175781</v>
+        <v>68.800003051757813</v>
       </c>
       <c r="D185">
-        <v>69.59999847412109</v>
+        <v>69.599998474121094</v>
       </c>
       <c r="E185">
         <v>68</v>
@@ -4716,9 +4776,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B186">
         <v>82679</v>
@@ -4736,29 +4796,29 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B187">
         <v>79502</v>
       </c>
       <c r="C187">
-        <v>116.9000015258789</v>
+        <v>116.90000152587891</v>
       </c>
       <c r="D187">
-        <v>117.4000015258789</v>
+        <v>117.40000152587891</v>
       </c>
       <c r="E187">
-        <v>116.4000015258789</v>
+        <v>116.40000152587891</v>
       </c>
       <c r="F187">
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B188">
         <v>76224</v>
@@ -4776,38 +4836,38 @@
         <v>495</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B189">
         <v>74129</v>
       </c>
       <c r="C189">
-        <v>75.59999847412109</v>
+        <v>75.599998474121094</v>
       </c>
       <c r="D189">
-        <v>77.69999694824219</v>
+        <v>77.699996948242188</v>
       </c>
       <c r="E189">
-        <v>73.59999847412109</v>
+        <v>73.599998474121094</v>
       </c>
       <c r="F189">
         <v>104</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B190">
         <v>73603</v>
       </c>
       <c r="C190">
-        <v>36.79999923706055</v>
+        <v>36.799999237060547</v>
       </c>
       <c r="D190">
-        <v>46.09999847412109</v>
+        <v>46.099998474121087</v>
       </c>
       <c r="E190">
         <v>27.5</v>
@@ -4816,18 +4876,18 @@
         <v>274</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191">
         <v>72085</v>
       </c>
       <c r="C191">
-        <v>34.70000076293945</v>
+        <v>34.700000762939453</v>
       </c>
       <c r="D191">
-        <v>41.59999847412109</v>
+        <v>41.599998474121087</v>
       </c>
       <c r="E191">
         <v>-999</v>
@@ -4836,49 +4896,49 @@
         <v>266</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B192">
         <v>67229</v>
       </c>
       <c r="C192">
-        <v>3.099999904632568</v>
+        <v>3.0999999046325679</v>
       </c>
       <c r="D192">
-        <v>3.799999952316284</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="E192">
-        <v>2.400000095367432</v>
+        <v>2.4000000953674321</v>
       </c>
       <c r="F192">
         <v>174</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B193">
         <v>64799</v>
       </c>
       <c r="C193">
-        <v>0.300000011920929</v>
+        <v>0.30000001192092901</v>
       </c>
       <c r="D193">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="E193">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F193">
         <v>663</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B194">
         <v>55663</v>
@@ -4896,78 +4956,78 @@
         <v>579</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B195">
         <v>52374</v>
       </c>
       <c r="C195">
-        <v>68.90000152587891</v>
+        <v>68.900001525878906</v>
       </c>
       <c r="D195">
-        <v>72.19999694824219</v>
+        <v>72.199996948242188</v>
       </c>
       <c r="E195">
-        <v>65.59999847412109</v>
+        <v>65.599998474121094</v>
       </c>
       <c r="F195">
         <v>77</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B196">
         <v>49980</v>
       </c>
       <c r="C196">
-        <v>64.09999847412109</v>
+        <v>64.099998474121094</v>
       </c>
       <c r="D196">
-        <v>68.40000152587891</v>
+        <v>68.400001525878906</v>
       </c>
       <c r="E196">
-        <v>59.79999923706055</v>
+        <v>59.799999237060547</v>
       </c>
       <c r="F196">
         <v>120</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B197">
         <v>49310</v>
       </c>
       <c r="C197">
-        <v>58.70000076293945</v>
+        <v>58.700000762939453</v>
       </c>
       <c r="D197">
-        <v>61.20000076293945</v>
+        <v>61.200000762939453</v>
       </c>
       <c r="E197">
-        <v>56.20000076293945</v>
+        <v>56.200000762939453</v>
       </c>
       <c r="F197">
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B198">
         <v>47098</v>
       </c>
       <c r="C198">
-        <v>41.29999923706055</v>
+        <v>41.299999237060547</v>
       </c>
       <c r="D198">
-        <v>44.20000076293945</v>
+        <v>44.200000762939453</v>
       </c>
       <c r="E198">
         <v>38.5</v>
@@ -4976,29 +5036,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B199">
         <v>47088</v>
       </c>
       <c r="C199">
-        <v>69.19999694824219</v>
+        <v>69.199996948242188</v>
       </c>
       <c r="D199">
-        <v>71.80000305175781</v>
+        <v>71.800003051757813</v>
       </c>
       <c r="E199">
-        <v>71.80000305175781</v>
+        <v>71.800003051757813</v>
       </c>
       <c r="F199">
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B200">
         <v>44624</v>
@@ -5007,7 +5067,7 @@
         <v>31.39999961853027</v>
       </c>
       <c r="D200">
-        <v>33.29999923706055</v>
+        <v>33.299999237060547</v>
       </c>
       <c r="E200">
         <v>29.60000038146973</v>
@@ -5016,29 +5076,29 @@
         <v>82</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B201">
         <v>41993</v>
       </c>
       <c r="C201">
-        <v>0.4000000059604645</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="D201">
-        <v>0.6000000238418579</v>
+        <v>0.60000002384185791</v>
       </c>
       <c r="E201">
-        <v>0.2000000029802322</v>
+        <v>0.20000000298023221</v>
       </c>
       <c r="F201">
         <v>-999</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B202">
         <v>33077</v>
@@ -5056,69 +5116,69 @@
         <v>113</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B203">
         <v>18584</v>
       </c>
       <c r="C203">
-        <v>61.90000152587891</v>
+        <v>61.900001525878913</v>
       </c>
       <c r="D203">
-        <v>63.29999923706055</v>
+        <v>63.299999237060547</v>
       </c>
       <c r="E203">
-        <v>60.59999847412109</v>
+        <v>60.599998474121087</v>
       </c>
       <c r="F203">
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B204">
         <v>14863</v>
       </c>
       <c r="C204">
-        <v>57.20000076293945</v>
+        <v>57.200000762939453</v>
       </c>
       <c r="D204">
-        <v>58.59999847412109</v>
+        <v>58.599998474121087</v>
       </c>
       <c r="E204">
-        <v>55.79999923706055</v>
+        <v>55.799999237060547</v>
       </c>
       <c r="F204">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B205">
         <v>7892</v>
       </c>
       <c r="C205">
-        <v>65.80000305175781</v>
+        <v>65.800003051757813</v>
       </c>
       <c r="D205">
-        <v>72.69999694824219</v>
+        <v>72.699996948242188</v>
       </c>
       <c r="E205">
-        <v>58.90000152587891</v>
+        <v>58.900001525878913</v>
       </c>
       <c r="F205">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B206">
         <v>4407</v>
@@ -5127,18 +5187,18 @@
         <v>73.5</v>
       </c>
       <c r="D206">
-        <v>87.69999694824219</v>
+        <v>87.699996948242188</v>
       </c>
       <c r="E206">
-        <v>59.20000076293945</v>
+        <v>59.200000762939453</v>
       </c>
       <c r="F206">
         <v>202</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B207">
         <v>2871</v>
@@ -5156,9 +5216,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B208">
         <v>-999</v>
@@ -5177,6 +5237,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>